--- a/src/assets/MarketStatusFilter.xlsx
+++ b/src/assets/MarketStatusFilter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Library/Containers/com.tencent.xinWeChat/Data/Library/Application Support/com.tencent.xinWeChat/2.0b4.0.9/a9f04c281c84879a3a29c6c2ed39332a/Message/MessageTemp/6a859752b3dd110e00c13b2017702986/File/归档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A0055-6EE9-4204-97A0-DAAA28523B3E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4EE8D4-3296-B142-A1D5-F21CAC2D6907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15885" yWindow="5775" windowWidth="10005" windowHeight="11025" xr2:uid="{3D4CE6E7-FC1A-A94D-A815-484F408E05C4}"/>
+    <workbookView xWindow="8980" yWindow="1720" windowWidth="10000" windowHeight="11020" xr2:uid="{3D4CE6E7-FC1A-A94D-A815-484F408E05C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,18 +48,19 @@
     <t>停售</t>
   </si>
   <si>
-    <t>屏蔽屏蔽屏蔽</t>
-  </si>
-  <si>
     <t>采用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0屏蔽屏蔽屏蔽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>marketStatusFilter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marketStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,81 +428,81 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>